--- a/eda/sample_eda.xlsx
+++ b/eda/sample_eda.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhcpn/Github/IRIS-playground-v2-ui/project/environment/frontend/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jheok/Desktop/mobigen/Template-Jupyter-Sample/eda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35FB69F-A36B-1348-B13F-64DF7D9F9260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E23CE-9011-BC4E-9545-4170F63C09D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="660" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="대표값" sheetId="1" r:id="rId1"/>
+    <sheet name="대푯값" sheetId="1" r:id="rId1"/>
     <sheet name="사분위수" sheetId="2" r:id="rId2"/>
     <sheet name="이상치" sheetId="3" r:id="rId3"/>
     <sheet name="산점도" sheetId="4" r:id="rId4"/>
@@ -187,7 +187,7 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val=".AppleSystemUIFont"/>
-      <charset val="136"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -515,7 +515,9 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1866,7 +1868,7 @@
   </sheetPr>
   <dimension ref="A1:C992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
